--- a/Collection_Study_Case/src/com/guideme/collection/casestudy/JAVA_CASE_STUDY.xlsx
+++ b/Collection_Study_Case/src/com/guideme/collection/casestudy/JAVA_CASE_STUDY.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
     <sheet name="QUEUE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MAP" sheetId="3" r:id="rId3"/>
+    <sheet name="ENUM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>ArrayList</t>
   </si>
@@ -135,6 +136,86 @@
   <si>
     <t>Faster than LinkedList and
  Stack</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Can contain duplicate Data but key is unique</t>
+  </si>
+  <si>
+    <t>Stored data as Key Value pair</t>
+  </si>
+  <si>
+    <t>Order based on Key</t>
+  </si>
+  <si>
+    <t>Map is useful if you have to search, update 
+or delete elements on the basis of key</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>No ordering</t>
+  </si>
+  <si>
+    <t>permits one null key</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>A LinkedHashMap contains values based on the key</t>
+  </si>
+  <si>
+    <t>Insertion Order</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>A TreeMap contains values based on the key. It implements the  NavigableMap interface and extends AbstractMap class</t>
+  </si>
+  <si>
+    <t>It contains only unique elements.</t>
+  </si>
+  <si>
+    <t>It cannot have null key but can have multiple null values</t>
+  </si>
+  <si>
+    <t>It is same as HashMap instead maintains ascending order</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>A Hashtable is an array of list. Each list is known as a bucket.  The position of bucket is identified by  calling the hashcode() method. A Hashtable contains values based on the key</t>
+  </si>
+  <si>
+    <t>Contain only unique elements</t>
+  </si>
+  <si>
+    <t>It's Synchronized</t>
+  </si>
+  <si>
+    <t>Not have null key or value</t>
+  </si>
+  <si>
+    <t>EnumSet</t>
+  </si>
+  <si>
+    <t>EnumMap</t>
+  </si>
+  <si>
+    <t>Use with Enum type</t>
+  </si>
+  <si>
+    <t>Inherit AbstractSet and implements Set interface</t>
+  </si>
+  <si>
+    <t>Java EnumMap class is the specialized Map
+ implementation for enum keys. It inherits Enum and AbstractMap classes</t>
   </si>
 </sst>
 </file>
@@ -630,6 +711,216 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3629025" y="1314450"/>
+          <a:ext cx="1533525" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="1352550"/>
+          <a:ext cx="1628775" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11401425" y="1343025"/>
+          <a:ext cx="1533525" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2390775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1162050"/>
+          <a:ext cx="1781175" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3609975" y="1352550"/>
+          <a:ext cx="1790700" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1041,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1153,12 +1444,164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>